--- a/Data/case1.xlsx
+++ b/Data/case1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guojingwang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\VSCodeWorkspace\Ocsai-ch-AUT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90757149-0BB4-4EE6-BAF4-1A523E6553F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8231D65-03F2-42A0-B7B3-5508657D2AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="21380" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5510" yWindow="2650" windowWidth="15870" windowHeight="10880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +44,10 @@
   </si>
   <si>
     <t>筷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,20 +376,20 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -397,10 +397,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
